--- a/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第11章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第11章 角色统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>角色</t>
   </si>
@@ -49,27 +49,27 @@
     <t>高尔</t>
   </si>
   <si>
+    <t>克鲁克山</t>
+  </si>
+  <si>
+    <t>小猪</t>
+  </si>
+  <si>
     <t>海德薇</t>
   </si>
   <si>
-    <t>克鲁克山</t>
-  </si>
-  <si>
-    <t>小猪</t>
-  </si>
-  <si>
     <t>穆迪</t>
   </si>
   <si>
     <t>德拉科</t>
   </si>
   <si>
+    <t>克拉布</t>
+  </si>
+  <si>
     <t>卢平</t>
   </si>
   <si>
-    <t>克拉布</t>
-  </si>
-  <si>
     <t>波特</t>
   </si>
   <si>
@@ -79,13 +79,16 @@
     <t>邓布利多</t>
   </si>
   <si>
+    <t>阿拉斯托</t>
+  </si>
+  <si>
+    <t>佩妮</t>
+  </si>
+  <si>
     <t>隆巴顿</t>
   </si>
   <si>
-    <t>阿拉斯托</t>
-  </si>
-  <si>
-    <t>佩妮</t>
+    <t>斯普劳特</t>
   </si>
   <si>
     <t>小天狼星布莱克</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,7 +515,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -545,7 +548,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -556,7 +559,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -567,7 +570,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -578,7 +581,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -589,7 +592,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -611,7 +614,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -622,7 +625,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -633,7 +636,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -644,7 +647,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -677,7 +680,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -688,7 +691,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -699,7 +702,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -710,7 +713,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -721,7 +724,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -732,12 +735,23 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
     </row>
